--- a/src/main/resources/templet/download/pay/pay_templet.xlsx
+++ b/src/main/resources/templet/download/pay/pay_templet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>类别</t>
   </si>
@@ -91,13 +91,17 @@
   </si>
   <si>
     <t>应付期间</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +123,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,11 +176,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -472,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,12 +512,12 @@
     <col min="20" max="20" width="14.5" customWidth="1"/>
     <col min="21" max="21" width="14.125" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="16.75" customWidth="1"/>
-    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="23" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="16.75" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,10 +587,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/templet/download/pay/pay_templet.xlsx
+++ b/src/main/resources/templet/download/pay/pay_templet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>类别</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否含税</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,20 +508,20 @@
     <col min="12" max="12" width="20.875" customWidth="1"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
     <col min="14" max="14" width="30.25" customWidth="1"/>
-    <col min="15" max="15" width="9.25" customWidth="1"/>
-    <col min="16" max="16" width="13.625" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="16.75" customWidth="1"/>
-    <col min="19" max="19" width="13.25" customWidth="1"/>
-    <col min="20" max="20" width="14.5" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="24" width="14.5" customWidth="1"/>
-    <col min="25" max="25" width="16.75" customWidth="1"/>
-    <col min="26" max="26" width="15" customWidth="1"/>
+    <col min="15" max="16" width="9.25" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="20" width="13.25" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="22" max="22" width="14.125" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
+    <col min="24" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="16.75" customWidth="1"/>
+    <col min="27" max="27" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,37 +567,40 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
